--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gast-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gast-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Gast</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.2607106666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.782132</v>
+      </c>
+      <c r="I2">
+        <v>0.6744482444022483</v>
+      </c>
+      <c r="J2">
+        <v>0.6744482444022483</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.109749666666667</v>
-      </c>
-      <c r="H2">
-        <v>6.329249</v>
-      </c>
-      <c r="I2">
-        <v>0.8575698734778531</v>
-      </c>
-      <c r="J2">
-        <v>0.857569873477853</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.1771103333333333</v>
+        <v>0.08226166666666666</v>
       </c>
       <c r="N2">
-        <v>0.531331</v>
+        <v>0.246785</v>
       </c>
       <c r="O2">
-        <v>0.6605086602016094</v>
+        <v>0.9036565896241614</v>
       </c>
       <c r="P2">
-        <v>0.6605086602016094</v>
+        <v>0.9036565896241615</v>
       </c>
       <c r="Q2">
-        <v>0.3736584667132222</v>
+        <v>0.02144649395777778</v>
       </c>
       <c r="R2">
-        <v>3.362926200419</v>
+        <v>0.19301844562</v>
       </c>
       <c r="S2">
-        <v>0.5664323281601203</v>
+        <v>0.6094696004145386</v>
       </c>
       <c r="T2">
-        <v>0.5664323281601203</v>
+        <v>0.6094696004145387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.109749666666667</v>
+        <v>0.2607106666666667</v>
       </c>
       <c r="H3">
-        <v>6.329249</v>
+        <v>0.782132</v>
       </c>
       <c r="I3">
-        <v>0.8575698734778531</v>
+        <v>0.6744482444022483</v>
       </c>
       <c r="J3">
-        <v>0.857569873477853</v>
+        <v>0.6744482444022483</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08226166666666666</v>
+        <v>0.008770333333333333</v>
       </c>
       <c r="N3">
-        <v>0.246785</v>
+        <v>0.026311</v>
       </c>
       <c r="O3">
-        <v>0.3067835863291511</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="P3">
-        <v>0.306783586329151</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="Q3">
-        <v>0.1735515238294444</v>
+        <v>0.002286519450222223</v>
       </c>
       <c r="R3">
-        <v>1.561963714465</v>
+        <v>0.020578675052</v>
       </c>
       <c r="S3">
-        <v>0.2630883613133721</v>
+        <v>0.06497864398770965</v>
       </c>
       <c r="T3">
-        <v>0.263088361313372</v>
+        <v>0.06497864398770965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,55 +652,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1258433333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.37753</v>
+      </c>
+      <c r="I4">
+        <v>0.3255517555977517</v>
+      </c>
+      <c r="J4">
+        <v>0.3255517555977517</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>2.109749666666667</v>
-      </c>
-      <c r="H4">
-        <v>6.329249</v>
-      </c>
-      <c r="I4">
-        <v>0.8575698734778531</v>
-      </c>
-      <c r="J4">
-        <v>0.857569873477853</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.008770333333333333</v>
+        <v>0.08226166666666666</v>
       </c>
       <c r="N4">
-        <v>0.026311</v>
+        <v>0.246785</v>
       </c>
       <c r="O4">
-        <v>0.0327077534692396</v>
+        <v>0.9036565896241614</v>
       </c>
       <c r="P4">
-        <v>0.0327077534692396</v>
+        <v>0.9036565896241615</v>
       </c>
       <c r="Q4">
-        <v>0.01850320782655555</v>
+        <v>0.01035208233888889</v>
       </c>
       <c r="R4">
-        <v>0.166528870439</v>
+        <v>0.09316874104999999</v>
       </c>
       <c r="S4">
-        <v>0.02804918400436061</v>
+        <v>0.2941869892096228</v>
       </c>
       <c r="T4">
-        <v>0.02804918400436061</v>
+        <v>0.2941869892096229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3503993333333333</v>
+        <v>0.1258433333333333</v>
       </c>
       <c r="H5">
-        <v>1.051198</v>
+        <v>0.37753</v>
       </c>
       <c r="I5">
-        <v>0.142430126522147</v>
+        <v>0.3255517555977517</v>
       </c>
       <c r="J5">
-        <v>0.142430126522147</v>
+        <v>0.3255517555977517</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,152 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1771103333333333</v>
+        <v>0.008770333333333333</v>
       </c>
       <c r="N5">
-        <v>0.531331</v>
+        <v>0.026311</v>
       </c>
       <c r="O5">
-        <v>0.6605086602016094</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="P5">
-        <v>0.6605086602016094</v>
+        <v>0.09634341037583853</v>
       </c>
       <c r="Q5">
-        <v>0.06205934272644444</v>
+        <v>0.001103687981111111</v>
       </c>
       <c r="R5">
-        <v>0.5585340845379999</v>
+        <v>0.00993319183</v>
       </c>
       <c r="S5">
-        <v>0.09407633204148899</v>
+        <v>0.03136476638812889</v>
       </c>
       <c r="T5">
-        <v>0.09407633204148899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.3503993333333333</v>
-      </c>
-      <c r="H6">
-        <v>1.051198</v>
-      </c>
-      <c r="I6">
-        <v>0.142430126522147</v>
-      </c>
-      <c r="J6">
-        <v>0.142430126522147</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.08226166666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.246785</v>
-      </c>
-      <c r="O6">
-        <v>0.3067835863291511</v>
-      </c>
-      <c r="P6">
-        <v>0.306783586329151</v>
-      </c>
-      <c r="Q6">
-        <v>0.02882443315888888</v>
-      </c>
-      <c r="R6">
-        <v>0.25941989843</v>
-      </c>
-      <c r="S6">
-        <v>0.04369522501577898</v>
-      </c>
-      <c r="T6">
-        <v>0.04369522501577897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.3503993333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.051198</v>
-      </c>
-      <c r="I7">
-        <v>0.142430126522147</v>
-      </c>
-      <c r="J7">
-        <v>0.142430126522147</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.008770333333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.026311</v>
-      </c>
-      <c r="O7">
-        <v>0.0327077534692396</v>
-      </c>
-      <c r="P7">
-        <v>0.0327077534692396</v>
-      </c>
-      <c r="Q7">
-        <v>0.003073118953111111</v>
-      </c>
-      <c r="R7">
-        <v>0.027658070578</v>
-      </c>
-      <c r="S7">
-        <v>0.004658569464878987</v>
-      </c>
-      <c r="T7">
-        <v>0.004658569464878987</v>
+        <v>0.03136476638812889</v>
       </c>
     </row>
   </sheetData>
